--- a/HW9/Timing Analysis.xlsx
+++ b/HW9/Timing Analysis.xlsx
@@ -203,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -377,11 +377,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,6 +429,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
@@ -1438,7 +1450,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1456,7 +1468,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11">
         <v>2020</v>
@@ -1475,7 +1487,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1495,7 +1507,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11">
         <v>2270</v>
@@ -1516,7 +1528,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -1534,7 +1546,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11">
         <v>1690</v>
@@ -1553,6 +1565,9 @@
         <v>2020</v>
       </c>
     </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
